--- a/TR编码器-切刀-电动回卷-大C/PCB/TR编码器-切刀V5-编码器BOM.xlsx
+++ b/TR编码器-切刀-电动回卷-大C/PCB/TR编码器-切刀V5-编码器BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3D打印\3D打印\打印机\TradRack_Beta-main\改件\编码器\PCB\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\3D打印\3D打印\打印机\TradRack_Beta-main\改件\PCB\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6567B8D1-D5A0-4105-84B2-A17D5DCB81FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A75C53FF-EE2C-4544-8DCA-19C064A5E587}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3795" yWindow="1425" windowWidth="21600" windowHeight="10770" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>181贴片电阻 0805</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>TCRT5000缩小 只能用这个牌子的芯片 其他的测试了无法使用 TCRT5000缩小2未测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>TR集线板</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -100,6 +96,14 @@
   </si>
   <si>
     <t>104 0.1UF贴片电容  0805</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCRT5000缩小2只能用这个牌子的芯片 其他的测试了无法使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>或者拆TCRT5000编码器</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -434,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection sqref="A1:C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="20.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -450,7 +454,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -481,7 +485,7 @@
     </row>
     <row r="5" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" s="1">
         <v>1</v>
@@ -497,99 +501,107 @@
     </row>
     <row r="7" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8" s="2"/>
     </row>
-    <row r="9" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C9" s="2"/>
+    <row r="9" spans="1:3" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1">
-        <v>3</v>
-      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:3" ht="33.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B14" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B15" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B16" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="1" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A11:C11"/>
+    <mergeCell ref="A9:C9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
